--- a/Figures Extracted + Matplotlib/Matplotlib/Master_Contains_all_Polymers_for_Matplotlib.xlsx
+++ b/Figures Extracted + Matplotlib/Matplotlib/Master_Contains_all_Polymers_for_Matplotlib.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kasif\Documents\Qatar-Environment-and-Energy-Research-Institute-Internship-Work-\Figures Extracted + Matplotlib\Matplotlib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C51C66B-20B7-4401-AC30-C1063C52FE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95A6568-EC67-4AE4-9D17-82C5C0311294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD067CC7-B06B-46EC-A1F2-A502DBFE1260}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="18">
   <si>
     <t>Polymer Name</t>
   </si>
@@ -63,6 +63,33 @@
   </si>
   <si>
     <t>PDPP3T</t>
+  </si>
+  <si>
+    <t>p type PEDOTs</t>
+  </si>
+  <si>
+    <t>p type Polythiophenes</t>
+  </si>
+  <si>
+    <t>p type PA/PANI</t>
+  </si>
+  <si>
+    <t>p type CNT composite</t>
+  </si>
+  <si>
+    <t>p type Other</t>
+  </si>
+  <si>
+    <t>n type Polythiophenes</t>
+  </si>
+  <si>
+    <t>n type PA/PANI</t>
+  </si>
+  <si>
+    <t>n type Other</t>
+  </si>
+  <si>
+    <t>Bi2Te3 compounds</t>
   </si>
 </sst>
 </file>
@@ -98,8 +125,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,17 +462,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B15A1C-A101-442A-A179-A0F73CFBB334}">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C348"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1514,6 +1544,2767 @@
         <v>32</v>
       </c>
     </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98">
+        <v>3.9394000000000001E-4</v>
+      </c>
+      <c r="C98">
+        <v>772.78681110000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99">
+        <v>2.2735889999999999E-3</v>
+      </c>
+      <c r="C99">
+        <v>709.16332669999997</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100">
+        <v>4.2908690000000001E-3</v>
+      </c>
+      <c r="C100">
+        <v>12.50301999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101">
+        <v>6.5650980000000001E-3</v>
+      </c>
+      <c r="C101">
+        <v>618.08012140000005</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102">
+        <v>1.2380044999999999E-2</v>
+      </c>
+      <c r="C102">
+        <v>12.50301999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103">
+        <v>2.2302151999999999E-2</v>
+      </c>
+      <c r="C103">
+        <v>587.02516109999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104">
+        <v>7.8905518999999993E-2</v>
+      </c>
+      <c r="C104">
+        <v>567.19362809999996</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105">
+        <v>0.31563524199999998</v>
+      </c>
+      <c r="C105">
+        <v>502.91262399999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106">
+        <v>0.82412909199999995</v>
+      </c>
+      <c r="C106">
+        <v>11.278174399999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107">
+        <v>1.6123461459999999</v>
+      </c>
+      <c r="C107">
+        <v>445.91669380000002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108">
+        <v>4.1199329770000004</v>
+      </c>
+      <c r="C108">
+        <v>388.64424289999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109">
+        <v>8.4169160600000001</v>
+      </c>
+      <c r="C109">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110">
+        <v>11.892886669999999</v>
+      </c>
+      <c r="C110">
+        <v>356.64718950000002</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111">
+        <v>21.936647409999999</v>
+      </c>
+      <c r="C111">
+        <v>305.54460999999998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112">
+        <v>40.487167589999999</v>
+      </c>
+      <c r="C112">
+        <v>236.12084479999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113">
+        <v>56.104587160000001</v>
+      </c>
+      <c r="C113">
+        <v>228.1439493</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114">
+        <v>81.070483999999993</v>
+      </c>
+      <c r="C114">
+        <v>182.4710747</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115">
+        <v>99.696329789999993</v>
+      </c>
+      <c r="C115">
+        <v>108.97162640000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116">
+        <v>117.44319350000001</v>
+      </c>
+      <c r="C116">
+        <v>94.975576919999995</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117">
+        <v>138.43334060000001</v>
+      </c>
+      <c r="C117">
+        <v>74.667967259999998</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118">
+        <v>169.8761944</v>
+      </c>
+      <c r="C118">
+        <v>63.96908655</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119">
+        <v>208.31289459999999</v>
+      </c>
+      <c r="C119">
+        <v>61.808012140000002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120">
+        <v>255.6277384</v>
+      </c>
+      <c r="C120">
+        <v>52.951784060000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121">
+        <v>255.8870186</v>
+      </c>
+      <c r="C121">
+        <v>44.591669379999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122">
+        <v>277.78618940000001</v>
+      </c>
+      <c r="C122">
+        <v>40.223292020000002</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123">
+        <v>453.96734220000002</v>
+      </c>
+      <c r="C123">
+        <v>28.038914349999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124">
+        <v>489.9292896</v>
+      </c>
+      <c r="C124">
+        <v>68.520558710000003</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125">
+        <v>554.43052880000005</v>
+      </c>
+      <c r="C125">
+        <v>53.86954205</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126">
+        <v>603.10105050000004</v>
+      </c>
+      <c r="C126">
+        <v>34.459853979999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127">
+        <v>678.56935290000001</v>
+      </c>
+      <c r="C127">
+        <v>72.145451429999994</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128">
+        <v>680.63624249999998</v>
+      </c>
+      <c r="C128">
+        <v>43.0852243</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129">
+        <v>902.40187949999995</v>
+      </c>
+      <c r="C129">
+        <v>74.667967259999998</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>9</v>
+      </c>
+      <c r="B130">
+        <v>1538.4149159999999</v>
+      </c>
+      <c r="C130">
+        <v>40.223292020000002</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131">
+        <v>1735.6669139999999</v>
+      </c>
+      <c r="C131">
+        <v>52.951784060000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>10</v>
+      </c>
+      <c r="B132">
+        <v>4.8538109829665699E-6</v>
+      </c>
+      <c r="C132">
+        <v>332.95693091189599</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>10</v>
+      </c>
+      <c r="B133">
+        <v>1.2372517126891401E-5</v>
+      </c>
+      <c r="C133">
+        <v>438.319755100382</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>10</v>
+      </c>
+      <c r="B134">
+        <v>1.3409605988466001E-5</v>
+      </c>
+      <c r="C134">
+        <v>520.49661618013499</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>10</v>
+      </c>
+      <c r="B135">
+        <v>1.71224804838595E-5</v>
+      </c>
+      <c r="C135">
+        <v>529.51784060681598</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>10</v>
+      </c>
+      <c r="B136">
+        <v>2.36480177721118E-5</v>
+      </c>
+      <c r="C136">
+        <v>902.03602106101596</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>10</v>
+      </c>
+      <c r="B137">
+        <v>2.37272636223773E-5</v>
+      </c>
+      <c r="C137">
+        <v>511.62908344033502</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>10</v>
+      </c>
+      <c r="B138">
+        <v>3.1585930979564202E-5</v>
+      </c>
+      <c r="C138">
+        <v>445.91669379025899</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>10</v>
+      </c>
+      <c r="B139">
+        <v>3.55347946931191E-5</v>
+      </c>
+      <c r="C139">
+        <v>949.75576916437706</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>10</v>
+      </c>
+      <c r="B140">
+        <v>3.7182121857799199E-5</v>
+      </c>
+      <c r="C140">
+        <v>438.319755100382</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141">
+        <v>4.5516549345239799E-5</v>
+      </c>
+      <c r="C141">
+        <v>567.19362807544303</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>10</v>
+      </c>
+      <c r="B142">
+        <v>4.560430648276E-5</v>
+      </c>
+      <c r="C142">
+        <v>409.204403447902</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>10</v>
+      </c>
+      <c r="B143">
+        <v>5.3733186050438797E-5</v>
+      </c>
+      <c r="C143">
+        <v>344.59853979763102</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>10</v>
+      </c>
+      <c r="B144">
+        <v>5.8136927507041E-5</v>
+      </c>
+      <c r="C144">
+        <v>548.03206579948699</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>10</v>
+      </c>
+      <c r="B145">
+        <v>6.5670951750326594E-5</v>
+      </c>
+      <c r="C145">
+        <v>587.02516112823605</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>10</v>
+      </c>
+      <c r="B146">
+        <v>8.3760578642117197E-5</v>
+      </c>
+      <c r="C146">
+        <v>721.454514283565</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>10</v>
+      </c>
+      <c r="B147">
+        <v>1.02847954561252E-4</v>
+      </c>
+      <c r="C147">
+        <v>557.53053342619</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>10</v>
+      </c>
+      <c r="B148">
+        <v>1.1168378857351901E-4</v>
+      </c>
+      <c r="C148">
+        <v>477.64416602179301</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>10</v>
+      </c>
+      <c r="B149">
+        <v>1.21033074029374E-4</v>
+      </c>
+      <c r="C149">
+        <v>577.02420305555302</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>10</v>
+      </c>
+      <c r="B150">
+        <v>1.2145097449363401E-4</v>
+      </c>
+      <c r="C150">
+        <v>321.70861172938402</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>10</v>
+      </c>
+      <c r="B151">
+        <v>1.36690157206327E-4</v>
+      </c>
+      <c r="C151">
+        <v>639.69086553420595</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>10</v>
+      </c>
+      <c r="B152">
+        <v>1.4267928971480601E-4</v>
+      </c>
+      <c r="C152">
+        <v>445.91669379025899</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>10</v>
+      </c>
+      <c r="B153">
+        <v>1.6778809760201801E-4</v>
+      </c>
+      <c r="C153">
+        <v>520.49661618013499</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>10</v>
+      </c>
+      <c r="B154">
+        <v>1.68060477209225E-4</v>
+      </c>
+      <c r="C154">
+        <v>395.38020784318797</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>10</v>
+      </c>
+      <c r="B155">
+        <v>1.6860656364763301E-4</v>
+      </c>
+      <c r="C155">
+        <v>228.143949334654</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>10</v>
+      </c>
+      <c r="B156">
+        <v>1.89704936997661E-4</v>
+      </c>
+      <c r="C156">
+        <v>477.64416602179301</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>10</v>
+      </c>
+      <c r="B157">
+        <v>2.42501037021223E-4</v>
+      </c>
+      <c r="C157">
+        <v>402.23292019124801</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>10</v>
+      </c>
+      <c r="B158">
+        <v>3.5094447509509402E-4</v>
+      </c>
+      <c r="C158">
+        <v>248.612172152526</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>10</v>
+      </c>
+      <c r="B159">
+        <v>3.78591702532498E-4</v>
+      </c>
+      <c r="C159">
+        <v>650.77795944085506</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>10</v>
+      </c>
+      <c r="B160">
+        <v>3.95660885769388E-4</v>
+      </c>
+      <c r="C160">
+        <v>369.11711188679197</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>10</v>
+      </c>
+      <c r="B161">
+        <v>4.83661916372916E-4</v>
+      </c>
+      <c r="C161">
+        <v>607.55009002286602</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>10</v>
+      </c>
+      <c r="B162">
+        <v>6.1739125261728095E-4</v>
+      </c>
+      <c r="C162">
+        <v>650.77795944085506</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>10</v>
+      </c>
+      <c r="B163">
+        <v>8.2722617533262995E-4</v>
+      </c>
+      <c r="C163">
+        <v>188.85104963678299</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>10</v>
+      </c>
+      <c r="B164">
+        <v>1.7141585294056399E-3</v>
+      </c>
+      <c r="C164">
+        <v>438.31975510038302</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>10</v>
+      </c>
+      <c r="B165">
+        <v>2.1896654066142799E-3</v>
+      </c>
+      <c r="C165">
+        <v>416.29671614530503</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>10</v>
+      </c>
+      <c r="B166">
+        <v>2.3823675310052001E-3</v>
+      </c>
+      <c r="C166">
+        <v>257.304724863491</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>10</v>
+      </c>
+      <c r="B167">
+        <v>2.3903509798700699E-3</v>
+      </c>
+      <c r="C167">
+        <v>145.941600416277</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>10</v>
+      </c>
+      <c r="B168">
+        <v>2.5784002107731301E-3</v>
+      </c>
+      <c r="C168">
+        <v>388.64424294211199</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>10</v>
+      </c>
+      <c r="B169">
+        <v>3.56502594936229E-3</v>
+      </c>
+      <c r="C169">
+        <v>548.03206579948699</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>10</v>
+      </c>
+      <c r="B170">
+        <v>3.71972026240064E-3</v>
+      </c>
+      <c r="C170">
+        <v>409.204403447902</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>10</v>
+      </c>
+      <c r="B171">
+        <v>4.3805322184316299E-3</v>
+      </c>
+      <c r="C171">
+        <v>375.514633412477</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>10</v>
+      </c>
+      <c r="B172">
+        <v>4.9517225981620403E-3</v>
+      </c>
+      <c r="C172">
+        <v>356.64718948914702</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>10</v>
+      </c>
+      <c r="B173">
+        <v>6.0702678476416702E-3</v>
+      </c>
+      <c r="C173">
+        <v>362.82858286906702</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>10</v>
+      </c>
+      <c r="B174">
+        <v>7.7896128238558E-3</v>
+      </c>
+      <c r="C174">
+        <v>159.03493558658801</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>10</v>
+      </c>
+      <c r="B175">
+        <v>8.0717848397087195E-3</v>
+      </c>
+      <c r="C175">
+        <v>382.02303649947203</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>10</v>
+      </c>
+      <c r="B176">
+        <v>1.16589076194323E-2</v>
+      </c>
+      <c r="C176">
+        <v>327.284451218421</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>10</v>
+      </c>
+      <c r="B177">
+        <v>1.32555229275406E-2</v>
+      </c>
+      <c r="C177">
+        <v>116.72507969054701</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>10</v>
+      </c>
+      <c r="B178">
+        <v>1.43404348613391E-2</v>
+      </c>
+      <c r="C178">
+        <v>188.85104963678299</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>10</v>
+      </c>
+      <c r="B179">
+        <v>1.4900634864683999E-2</v>
+      </c>
+      <c r="C179">
+        <v>285.24883580684201</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>10</v>
+      </c>
+      <c r="B180">
+        <v>1.8312895256748601E-2</v>
+      </c>
+      <c r="C180">
+        <v>188.85104963678299</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>10</v>
+      </c>
+      <c r="B181">
+        <v>2.1570572169818999E-2</v>
+      </c>
+      <c r="C181">
+        <v>167.44824380115301</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>10</v>
+      </c>
+      <c r="B182">
+        <v>2.5271606663495001E-2</v>
+      </c>
+      <c r="C182">
+        <v>369.11711188679197</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>10</v>
+      </c>
+      <c r="B183">
+        <v>2.63681972318985E-2</v>
+      </c>
+      <c r="C183">
+        <v>275.61224424286002</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>10</v>
+      </c>
+      <c r="B184">
+        <v>3.5130043391176702E-2</v>
+      </c>
+      <c r="C184">
+        <v>209.36087387579801</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>10</v>
+      </c>
+      <c r="B185">
+        <v>3.5183504921021E-2</v>
+      </c>
+      <c r="C185">
+        <v>161.791322085579</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>10</v>
+      </c>
+      <c r="B186">
+        <v>3.6695311224645998E-2</v>
+      </c>
+      <c r="C186">
+        <v>129.40179434658299</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>10</v>
+      </c>
+      <c r="B187">
+        <v>4.5048310743011397E-2</v>
+      </c>
+      <c r="C187">
+        <v>103.496430860847</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>10</v>
+      </c>
+      <c r="B188">
+        <v>5.0767655614633499E-2</v>
+      </c>
+      <c r="C188">
+        <v>164.595482153967</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>10</v>
+      </c>
+      <c r="B189">
+        <v>6.4679873676679295E-2</v>
+      </c>
+      <c r="C189">
+        <v>244.37664687235301</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>10</v>
+      </c>
+      <c r="B190">
+        <v>7.0272237228614698E-2</v>
+      </c>
+      <c r="C190">
+        <v>192.124207711259</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>10</v>
+      </c>
+      <c r="B191">
+        <v>8.2781341799876798E-2</v>
+      </c>
+      <c r="C191">
+        <v>167.44824380115301</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>10</v>
+      </c>
+      <c r="B192">
+        <v>0.105905776677855</v>
+      </c>
+      <c r="C192">
+        <v>122.900100720889</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>10</v>
+      </c>
+      <c r="B193">
+        <v>0.110434067591967</v>
+      </c>
+      <c r="C193">
+        <v>101.733195595561</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>10</v>
+      </c>
+      <c r="B194">
+        <v>0.119605962083065</v>
+      </c>
+      <c r="C194">
+        <v>136.24744228764601</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>10</v>
+      </c>
+      <c r="B195">
+        <v>0.159188173587788</v>
+      </c>
+      <c r="C195">
+        <v>122.900100720889</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>10</v>
+      </c>
+      <c r="B196">
+        <v>0.15962449875197399</v>
+      </c>
+      <c r="C196">
+        <v>77.278681107129998</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>10</v>
+      </c>
+      <c r="B197">
+        <v>0.17976285277454901</v>
+      </c>
+      <c r="C197">
+        <v>138.60887695644101</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>10</v>
+      </c>
+      <c r="B198">
+        <v>0.203326294303532</v>
+      </c>
+      <c r="C198">
+        <v>118.748153630659</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>10</v>
+      </c>
+      <c r="B199">
+        <v>0.22081676958621199</v>
+      </c>
+      <c r="C199">
+        <v>99.999999999999901</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>10</v>
+      </c>
+      <c r="B200">
+        <v>0.23944741007919501</v>
+      </c>
+      <c r="C200">
+        <v>108.971626412869</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>10</v>
+      </c>
+      <c r="B201">
+        <v>0.33184489981080501</v>
+      </c>
+      <c r="C201">
+        <v>103.496430860847</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>10</v>
+      </c>
+      <c r="B202">
+        <v>0.34698229324081098</v>
+      </c>
+      <c r="C202">
+        <v>53.8695420497925</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>10</v>
+      </c>
+      <c r="B203">
+        <v>0.58663846646462103</v>
+      </c>
+      <c r="C203">
+        <v>118.748153630659</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>10</v>
+      </c>
+      <c r="B204">
+        <v>0.64059941296104195</v>
+      </c>
+      <c r="C204">
+        <v>39.538020784318803</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>10</v>
+      </c>
+      <c r="B205">
+        <v>0.95821807690102201</v>
+      </c>
+      <c r="C205">
+        <v>90.203602106101698</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>10</v>
+      </c>
+      <c r="B206">
+        <v>0.96416207850223201</v>
+      </c>
+      <c r="C206">
+        <v>31.6227766016837</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>10</v>
+      </c>
+      <c r="B207">
+        <v>1.3235381087317899</v>
+      </c>
+      <c r="C207">
+        <v>151.044347572047</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>10</v>
+      </c>
+      <c r="B208">
+        <v>1.5118222282249401</v>
+      </c>
+      <c r="C208">
+        <v>24.437664687235301</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>10</v>
+      </c>
+      <c r="B209">
+        <v>1.5608797128108001</v>
+      </c>
+      <c r="C209">
+        <v>108.971626412869</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>10</v>
+      </c>
+      <c r="B210">
+        <v>1.70203720274273</v>
+      </c>
+      <c r="C210">
+        <v>46.150786268561397</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>10</v>
+      </c>
+      <c r="B211">
+        <v>2.2577409355785001</v>
+      </c>
+      <c r="C211">
+        <v>73.395873214910793</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>10</v>
+      </c>
+      <c r="B212">
+        <v>2.3454625529247202</v>
+      </c>
+      <c r="C212">
+        <v>114.73647220773999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>10</v>
+      </c>
+      <c r="B213">
+        <v>3.13149218232989</v>
+      </c>
+      <c r="C213">
+        <v>60.755009002286599</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>10</v>
+      </c>
+      <c r="B214">
+        <v>4.1509566420288104</v>
+      </c>
+      <c r="C214">
+        <v>108.971626412869</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>10</v>
+      </c>
+      <c r="B215">
+        <v>4.3403061358348696</v>
+      </c>
+      <c r="C215">
+        <v>56.7193628075443</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>10</v>
+      </c>
+      <c r="B216">
+        <v>7.37389439639401</v>
+      </c>
+      <c r="C216">
+        <v>54.8032065799488</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>10</v>
+      </c>
+      <c r="B217">
+        <v>7.9919888121460696</v>
+      </c>
+      <c r="C217">
+        <v>65.077795944085494</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>10</v>
+      </c>
+      <c r="B218">
+        <v>9.0093933537437607</v>
+      </c>
+      <c r="C218">
+        <v>98.296332298012302</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>10</v>
+      </c>
+      <c r="B219">
+        <v>9.7923353184791093</v>
+      </c>
+      <c r="C219">
+        <v>72.145451428356495</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>10</v>
+      </c>
+      <c r="B220">
+        <v>14.768294338773201</v>
+      </c>
+      <c r="C220">
+        <v>40.920440344790201</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>10</v>
+      </c>
+      <c r="B221">
+        <v>15.978640398690599</v>
+      </c>
+      <c r="C221">
+        <v>65.077795944085594</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>10</v>
+      </c>
+      <c r="B222">
+        <v>23.065556718390301</v>
+      </c>
+      <c r="C222">
+        <v>61.808012142397097</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>10</v>
+      </c>
+      <c r="B223">
+        <v>25.039539488479001</v>
+      </c>
+      <c r="C223">
+        <v>55.753053342618898</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>10</v>
+      </c>
+      <c r="B224">
+        <v>26.102233692647999</v>
+      </c>
+      <c r="C224">
+        <v>48.5922673669739</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>10</v>
+      </c>
+      <c r="B225">
+        <v>29.514755141703802</v>
+      </c>
+      <c r="C225">
+        <v>43.831975510038298</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>10</v>
+      </c>
+      <c r="B226">
+        <v>37.732725746845396</v>
+      </c>
+      <c r="C226">
+        <v>36.282858286906702</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>10</v>
+      </c>
+      <c r="B227">
+        <v>39.170974998002201</v>
+      </c>
+      <c r="C227">
+        <v>63.969086553420603</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>10</v>
+      </c>
+      <c r="B228">
+        <v>66.724549671880197</v>
+      </c>
+      <c r="C228">
+        <v>39.538020784318803</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>10</v>
+      </c>
+      <c r="B229">
+        <v>75.493807312568705</v>
+      </c>
+      <c r="C229">
+        <v>32.170861172938402</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>10</v>
+      </c>
+      <c r="B230">
+        <v>78.387278434091002</v>
+      </c>
+      <c r="C230">
+        <v>54.8032065799488</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>10</v>
+      </c>
+      <c r="B231">
+        <v>78.442925070708</v>
+      </c>
+      <c r="C231">
+        <v>48.592267366973999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>10</v>
+      </c>
+      <c r="B232">
+        <v>88.788264533311406</v>
+      </c>
+      <c r="C232">
+        <v>36.911711188679199</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>10</v>
+      </c>
+      <c r="B233">
+        <v>88.995531937076294</v>
+      </c>
+      <c r="C233">
+        <v>24.861217215252601</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>10</v>
+      </c>
+      <c r="B234">
+        <v>113.441091312849</v>
+      </c>
+      <c r="C234">
+        <v>33.8727725773578</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>10</v>
+      </c>
+      <c r="B235">
+        <v>118.00411480139999</v>
+      </c>
+      <c r="C235">
+        <v>42.351195249400199</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>10</v>
+      </c>
+      <c r="B236">
+        <v>123.67500969088501</v>
+      </c>
+      <c r="C236">
+        <v>14.8471053806784</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>10</v>
+      </c>
+      <c r="B237">
+        <v>139.348563595917</v>
+      </c>
+      <c r="C237">
+        <v>24.437664687235301</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>10</v>
+      </c>
+      <c r="B238">
+        <v>163.70518358982801</v>
+      </c>
+      <c r="C238">
+        <v>33.8727725773578</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>10</v>
+      </c>
+      <c r="B239">
+        <v>170.65293715667801</v>
+      </c>
+      <c r="C239">
+        <v>29.522236413220199</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>10</v>
+      </c>
+      <c r="B240">
+        <v>170.981960632529</v>
+      </c>
+      <c r="C240">
+        <v>21.298950732064299</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>10</v>
+      </c>
+      <c r="B241">
+        <v>193.53168609382001</v>
+      </c>
+      <c r="C241">
+        <v>16.179132208557899</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>10</v>
+      </c>
+      <c r="B242">
+        <v>200.56253622589699</v>
+      </c>
+      <c r="C242">
+        <v>38.202303649947197</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>10</v>
+      </c>
+      <c r="B243">
+        <v>257.84002107731197</v>
+      </c>
+      <c r="C243">
+        <v>12.290010072088901</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>10</v>
+      </c>
+      <c r="B244">
+        <v>267.966704194557</v>
+      </c>
+      <c r="C244">
+        <v>17.936237390528198</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>10</v>
+      </c>
+      <c r="B245">
+        <v>302.66210040366502</v>
+      </c>
+      <c r="C245">
+        <v>19.545409601731802</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>10</v>
+      </c>
+      <c r="B246">
+        <v>402.049464049748</v>
+      </c>
+      <c r="C246">
+        <v>24.437664687235301</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>10</v>
+      </c>
+      <c r="B247">
+        <v>557.30449525570998</v>
+      </c>
+      <c r="C247">
+        <v>22.425713455579999</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>10</v>
+      </c>
+      <c r="B248">
+        <v>581.19248882244801</v>
+      </c>
+      <c r="C248">
+        <v>18.2471074669903</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>10</v>
+      </c>
+      <c r="B249">
+        <v>944.33128571454301</v>
+      </c>
+      <c r="C249">
+        <v>33.8727725773578</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>10</v>
+      </c>
+      <c r="B250">
+        <v>945.19328362850104</v>
+      </c>
+      <c r="C250">
+        <v>29.019275606543701</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>10</v>
+      </c>
+      <c r="B251">
+        <v>1426.6482599124199</v>
+      </c>
+      <c r="C251">
+        <v>14.3455240506221</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>11</v>
+      </c>
+      <c r="B252" s="1">
+        <v>1.70981960632529E-7</v>
+      </c>
+      <c r="C252">
+        <v>673.53196085034199</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>11</v>
+      </c>
+      <c r="B253" s="1">
+        <v>4.7160565886468898E-7</v>
+      </c>
+      <c r="C253">
+        <v>1386.0887695644101</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>11</v>
+      </c>
+      <c r="B254" s="1">
+        <v>8.6979709825687701E-7</v>
+      </c>
+      <c r="C254">
+        <v>1208.0629139919699</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>11</v>
+      </c>
+      <c r="B255">
+        <v>1.36150789697191E-6</v>
+      </c>
+      <c r="C255">
+        <v>1250.30199853524</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>11</v>
+      </c>
+      <c r="B256">
+        <v>1.88611885828597E-6</v>
+      </c>
+      <c r="C256">
+        <v>1271.97217770507</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>11</v>
+      </c>
+      <c r="B257">
+        <v>2.8336099547229102E-6</v>
+      </c>
+      <c r="C257">
+        <v>1386.0887695644101</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>11</v>
+      </c>
+      <c r="B258">
+        <v>5.9069652621484297E-6</v>
+      </c>
+      <c r="C258">
+        <v>1167.25079690547</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>11</v>
+      </c>
+      <c r="B259">
+        <v>8.9040654054267307E-6</v>
+      </c>
+      <c r="C259">
+        <v>721.454514283565</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>11</v>
+      </c>
+      <c r="B260">
+        <v>1.92670339984518E-5</v>
+      </c>
+      <c r="C260">
+        <v>1089.71626412869</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>11</v>
+      </c>
+      <c r="B261">
+        <v>3.0174300575642398E-5</v>
+      </c>
+      <c r="C261">
+        <v>1034.96430860847</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>11</v>
+      </c>
+      <c r="B262">
+        <v>3.8626785332838303E-5</v>
+      </c>
+      <c r="C262">
+        <v>685.205587130499</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>11</v>
+      </c>
+      <c r="B263">
+        <v>4.9231915211090998E-5</v>
+      </c>
+      <c r="C263">
+        <v>949.75576916437706</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>11</v>
+      </c>
+      <c r="B264">
+        <v>2.3227466862457699E-4</v>
+      </c>
+      <c r="C264">
+        <v>597.19945536574903</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>11</v>
+      </c>
+      <c r="B265">
+        <v>2.9673764797368598E-4</v>
+      </c>
+      <c r="C265">
+        <v>557.53053342619</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>11</v>
+      </c>
+      <c r="B266">
+        <v>7.2928603917293399E-4</v>
+      </c>
+      <c r="C266">
+        <v>356.64718948914702</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>11</v>
+      </c>
+      <c r="B267">
+        <v>8.6172245634176699E-4</v>
+      </c>
+      <c r="C267">
+        <v>185.63365529925599</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>11</v>
+      </c>
+      <c r="B268">
+        <v>1.3449087499015199E-3</v>
+      </c>
+      <c r="C268">
+        <v>316.22776601683802</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>11</v>
+      </c>
+      <c r="B269">
+        <v>4.9683161017423701E-3</v>
+      </c>
+      <c r="C269">
+        <v>202.28801334925899</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>11</v>
+      </c>
+      <c r="B270">
+        <v>1.6924018843012301E-2</v>
+      </c>
+      <c r="C270">
+        <v>120.80629139919699</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>11</v>
+      </c>
+      <c r="B271">
+        <v>8.6715578354939399E-2</v>
+      </c>
+      <c r="C271">
+        <v>63.969086553420603</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>11</v>
+      </c>
+      <c r="B272">
+        <v>0.36258957458442598</v>
+      </c>
+      <c r="C272">
+        <v>31.0840295702492</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>11</v>
+      </c>
+      <c r="B273">
+        <v>0.39178917907121402</v>
+      </c>
+      <c r="C273">
+        <v>61.808012142397203</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>11</v>
+      </c>
+      <c r="B274">
+        <v>0.44526169008005301</v>
+      </c>
+      <c r="C274">
+        <v>23.612084478634799</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>11</v>
+      </c>
+      <c r="B275">
+        <v>1.0906556860221099</v>
+      </c>
+      <c r="C275">
+        <v>26.630120667003801</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>11</v>
+      </c>
+      <c r="B276">
+        <v>1.28077101956905</v>
+      </c>
+      <c r="C276">
+        <v>39.538020784318803</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>11</v>
+      </c>
+      <c r="B277">
+        <v>1.5087600412293301</v>
+      </c>
+      <c r="C277">
+        <v>34.459853979763103</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>11</v>
+      </c>
+      <c r="B278">
+        <v>1.57614471595043</v>
+      </c>
+      <c r="C278">
+        <v>20.936087387579899</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>11</v>
+      </c>
+      <c r="B279">
+        <v>2.0050154796975499</v>
+      </c>
+      <c r="C279">
+        <v>40.223292019124798</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>11</v>
+      </c>
+      <c r="B280">
+        <v>4.7222760068278697</v>
+      </c>
+      <c r="C280">
+        <v>35.057110651177297</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>11</v>
+      </c>
+      <c r="B281">
+        <v>4.7385809825664804</v>
+      </c>
+      <c r="C281">
+        <v>19.545409601731802</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>11</v>
+      </c>
+      <c r="B282">
+        <v>5.8473844962153301</v>
+      </c>
+      <c r="C282">
+        <v>6.5077795944085404</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>11</v>
+      </c>
+      <c r="B283">
+        <v>6.5325669998967797</v>
+      </c>
+      <c r="C283">
+        <v>45.364530228690498</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>11</v>
+      </c>
+      <c r="B284">
+        <v>6.8388703444157199</v>
+      </c>
+      <c r="C284">
+        <v>19.212420771125899</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>11</v>
+      </c>
+      <c r="B285">
+        <v>6.89316266070289</v>
+      </c>
+      <c r="C285">
+        <v>5.0291262399178596</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>11</v>
+      </c>
+      <c r="B286">
+        <v>12.531571821095399</v>
+      </c>
+      <c r="C286">
+        <v>50.291262399178599</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>11</v>
+      </c>
+      <c r="B287">
+        <v>17.432495983425699</v>
+      </c>
+      <c r="C287">
+        <v>25.292110737030299</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>11</v>
+      </c>
+      <c r="B288">
+        <v>20.606545637733898</v>
+      </c>
+      <c r="C288">
+        <v>12.290010072088901</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>11</v>
+      </c>
+      <c r="B289">
+        <v>22.481482472783899</v>
+      </c>
+      <c r="C289">
+        <v>4.7764416602179196</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>11</v>
+      </c>
+      <c r="B290">
+        <v>25.4954838828933</v>
+      </c>
+      <c r="C290">
+        <v>2.6176431902199599</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>11</v>
+      </c>
+      <c r="B291">
+        <v>27.367717977964599</v>
+      </c>
+      <c r="C291">
+        <v>15.9034935586588</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>11</v>
+      </c>
+      <c r="B292">
+        <v>30.8173267577655</v>
+      </c>
+      <c r="C292">
+        <v>29.019275606543701</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>11</v>
+      </c>
+      <c r="B293">
+        <v>34.913468772838698</v>
+      </c>
+      <c r="C293">
+        <v>18.885104963678302</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>11</v>
+      </c>
+      <c r="B294">
+        <v>44.490072066430599</v>
+      </c>
+      <c r="C294">
+        <v>27.091672745497</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>11</v>
+      </c>
+      <c r="B295">
+        <v>59.375848238326697</v>
+      </c>
+      <c r="C295">
+        <v>15.366224155151</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>11</v>
+      </c>
+      <c r="B296">
+        <v>89.284709106372006</v>
+      </c>
+      <c r="C296">
+        <v>14.3455240506221</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>11</v>
+      </c>
+      <c r="B297">
+        <v>146.49005008999899</v>
+      </c>
+      <c r="C297">
+        <v>5.1162908344033404</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>11</v>
+      </c>
+      <c r="B298">
+        <v>151.42764520380399</v>
+      </c>
+      <c r="C298">
+        <v>18.563365529925601</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>11</v>
+      </c>
+      <c r="B299">
+        <v>316.72506107665799</v>
+      </c>
+      <c r="C299">
+        <v>8.8666832470989991</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>11</v>
+      </c>
+      <c r="B300">
+        <v>356.93655455788797</v>
+      </c>
+      <c r="C300">
+        <v>14.1011239906908</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>11</v>
+      </c>
+      <c r="B301">
+        <v>808.73474590724504</v>
+      </c>
+      <c r="C301">
+        <v>8.7156244283806004</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>11</v>
+      </c>
+      <c r="B302">
+        <v>839.475985900213</v>
+      </c>
+      <c r="C302">
+        <v>15.6325508754122</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>11</v>
+      </c>
+      <c r="B303">
+        <v>912.89145769325501</v>
+      </c>
+      <c r="C303">
+        <v>10.5290226442091</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>11</v>
+      </c>
+      <c r="B304">
+        <v>1614.6361471810999</v>
+      </c>
+      <c r="C304">
+        <v>11.0860317842269</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>11</v>
+      </c>
+      <c r="B305">
+        <v>2332.1847711267801</v>
+      </c>
+      <c r="C305">
+        <v>9.4975576916437294</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>11</v>
+      </c>
+      <c r="B306">
+        <v>32833.126814102303</v>
+      </c>
+      <c r="C306">
+        <v>19.8841697800835</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>11</v>
+      </c>
+      <c r="B307">
+        <v>47433.872690276599</v>
+      </c>
+      <c r="C307">
+        <v>16.459548215396701</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>11</v>
+      </c>
+      <c r="B308">
+        <v>63118.765986045299</v>
+      </c>
+      <c r="C308">
+        <v>15.366224155151</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>12</v>
+      </c>
+      <c r="B309">
+        <v>432.49331106420601</v>
+      </c>
+      <c r="C309">
+        <v>103.496430860847</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>12</v>
+      </c>
+      <c r="B310">
+        <v>649.49273363791303</v>
+      </c>
+      <c r="C310">
+        <v>120.80629139919699</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>12</v>
+      </c>
+      <c r="B311">
+        <v>899.38797934935405</v>
+      </c>
+      <c r="C311">
+        <v>131.64458054677499</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>12</v>
+      </c>
+      <c r="B312">
+        <v>1197.0300416964301</v>
+      </c>
+      <c r="C312">
+        <v>118.748153630659</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>12</v>
+      </c>
+      <c r="B313">
+        <v>1951.66994951471</v>
+      </c>
+      <c r="C313">
+        <v>122.900100720889</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>12</v>
+      </c>
+      <c r="B314">
+        <v>6447.03871591396</v>
+      </c>
+      <c r="C314">
+        <v>13.392623861860701</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>13</v>
+      </c>
+      <c r="B315">
+        <v>4.01764254129185E-3</v>
+      </c>
+      <c r="C315">
+        <v>871.56244283806495</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>13</v>
+      </c>
+      <c r="B316">
+        <v>8.7768043090167298E-3</v>
+      </c>
+      <c r="C316">
+        <v>261.76431902199698</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>13</v>
+      </c>
+      <c r="B317">
+        <v>1.48659318202093E-2</v>
+      </c>
+      <c r="C317">
+        <v>423.51195249400303</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>13</v>
+      </c>
+      <c r="B318">
+        <v>1.61889763932173E-2</v>
+      </c>
+      <c r="C318">
+        <v>224.25713455580001</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>13</v>
+      </c>
+      <c r="B319">
+        <v>1.8176027258897401E-2</v>
+      </c>
+      <c r="C319">
+        <v>673.53196085034199</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>13</v>
+      </c>
+      <c r="B320">
+        <v>6.7165685041374198E-2</v>
+      </c>
+      <c r="C320">
+        <v>409.204403447902</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>13</v>
+      </c>
+      <c r="B321">
+        <v>7.0372044281915305E-2</v>
+      </c>
+      <c r="C321">
+        <v>151.044347572047</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>13</v>
+      </c>
+      <c r="B322">
+        <v>0.134968924374161</v>
+      </c>
+      <c r="C322">
+        <v>173.302955873364</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>13</v>
+      </c>
+      <c r="B323">
+        <v>0.202770512581811</v>
+      </c>
+      <c r="C323">
+        <v>188.85104963678199</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>13</v>
+      </c>
+      <c r="B324">
+        <v>0.21058484441540901</v>
+      </c>
+      <c r="C324">
+        <v>310.84029570249101</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>13</v>
+      </c>
+      <c r="B325">
+        <v>1.3247462515795601</v>
+      </c>
+      <c r="C325">
+        <v>129.40179434658299</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>13</v>
+      </c>
+      <c r="B326">
+        <v>2.0776454386590602</v>
+      </c>
+      <c r="C326">
+        <v>96.621689432412495</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>13</v>
+      </c>
+      <c r="B327">
+        <v>3.5229904052597001</v>
+      </c>
+      <c r="C327">
+        <v>129.40179434658299</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>13</v>
+      </c>
+      <c r="B328">
+        <v>3.5340795218415901</v>
+      </c>
+      <c r="C328">
+        <v>75.962109176585699</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>13</v>
+      </c>
+      <c r="B329">
+        <v>4.6945910167495599</v>
+      </c>
+      <c r="C329">
+        <v>94.975576916437703</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>13</v>
+      </c>
+      <c r="B330">
+        <v>7.6425567783736099</v>
+      </c>
+      <c r="C330">
+        <v>127.197217770507</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>13</v>
+      </c>
+      <c r="B331">
+        <v>7.9798449410520798</v>
+      </c>
+      <c r="C331">
+        <v>84.211835672854306</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>13</v>
+      </c>
+      <c r="B332">
+        <v>12.564646266331</v>
+      </c>
+      <c r="C332">
+        <v>32.170861172938402</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>13</v>
+      </c>
+      <c r="B333">
+        <v>13.0250704770387</v>
+      </c>
+      <c r="C333">
+        <v>72.145451428356395</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>13</v>
+      </c>
+      <c r="B334">
+        <v>19.677622051082899</v>
+      </c>
+      <c r="C334">
+        <v>30.554460997984499</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>14</v>
+      </c>
+      <c r="B335">
+        <v>3.14E-3</v>
+      </c>
+      <c r="C335">
+        <v>813.66890000000001</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>14</v>
+      </c>
+      <c r="B336">
+        <v>5.5599999999999998E-3</v>
+      </c>
+      <c r="C336">
+        <v>933.57500000000005</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>15</v>
+      </c>
+      <c r="B337">
+        <v>3.2956513960996497E-2</v>
+      </c>
+      <c r="C337">
+        <v>10.5290226442091</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>15</v>
+      </c>
+      <c r="B338">
+        <v>4.9733554058088103E-2</v>
+      </c>
+      <c r="C338">
+        <v>5.3869542049792596</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>15</v>
+      </c>
+      <c r="B339">
+        <v>6.3465249628236298E-2</v>
+      </c>
+      <c r="C339">
+        <v>6.0755009002286302</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>15</v>
+      </c>
+      <c r="B340">
+        <v>0.82924131492767705</v>
+      </c>
+      <c r="C340">
+        <v>3.9538020784318801</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>15</v>
+      </c>
+      <c r="B341">
+        <v>5.6395412951356096</v>
+      </c>
+      <c r="C341">
+        <v>3.0033914514445401</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>16</v>
+      </c>
+      <c r="B342">
+        <v>3.2416398328663001</v>
+      </c>
+      <c r="C342">
+        <v>173.302955873364</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>16</v>
+      </c>
+      <c r="B343">
+        <v>14.844847810718401</v>
+      </c>
+      <c r="C343">
+        <v>17.035044938755998</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>16</v>
+      </c>
+      <c r="B344">
+        <v>34.533294591830703</v>
+      </c>
+      <c r="C344">
+        <v>120.80629139919699</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>17</v>
+      </c>
+      <c r="B345">
+        <v>175.69107607360701</v>
+      </c>
+      <c r="C345">
+        <v>212.98950732064401</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>17</v>
+      </c>
+      <c r="B346">
+        <v>298.76003561012902</v>
+      </c>
+      <c r="C346">
+        <v>176.30663507153901</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>17</v>
+      </c>
+      <c r="B347">
+        <v>935.75442539122503</v>
+      </c>
+      <c r="C347">
+        <v>159.03493558658801</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>17</v>
+      </c>
+      <c r="B348">
+        <v>1147.9464538151899</v>
+      </c>
+      <c r="C348">
+        <v>143.455240506221</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
